--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>368.4973226896092</v>
+        <v>216.7841046882269</v>
       </c>
       <c r="C2">
-        <v>16.66836549169378</v>
+        <v>9.805869587759862</v>
       </c>
       <c r="D2">
-        <v>92.79173456831546</v>
+        <v>54.58865468556923</v>
       </c>
       <c r="E2">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F2">
-        <v>113.7377985630259</v>
+        <v>66.91106098337664</v>
       </c>
       <c r="G2">
-        <v>608.3151441474621</v>
+        <v>357.8670610949753</v>
       </c>
       <c r="H2">
-        <v>13.39027230673391</v>
+        <v>7.877392900333057</v>
       </c>
       <c r="I2">
-        <v>1362.847144430182</v>
+        <v>801.7523597615391</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>368.4973226896092</v>
+        <v>216.7841046882269</v>
       </c>
       <c r="C3">
-        <v>25.00254823754067</v>
+        <v>14.7088043816398</v>
       </c>
       <c r="D3">
-        <v>111.8959152147334</v>
+        <v>65.82749535612759</v>
       </c>
       <c r="E3">
-        <v>146.6789787621684</v>
+        <v>86.29010071349622</v>
       </c>
       <c r="F3">
-        <v>134.9688542947908</v>
+        <v>79.40112570027361</v>
       </c>
       <c r="G3">
-        <v>580.9409626608265</v>
+        <v>341.7630433457014</v>
       </c>
       <c r="H3">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I3">
-        <v>1376.911430064158</v>
+        <v>810.0262694523541</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>436.3466660653556</v>
+        <v>256.6993449131459</v>
       </c>
       <c r="C4">
-        <v>20.83545686461722</v>
+        <v>12.25733698469983</v>
       </c>
       <c r="D4">
-        <v>125.5417585336033</v>
+        <v>73.85523869224072</v>
       </c>
       <c r="E4">
-        <v>168.8192019715523</v>
+        <v>99.31502157591078</v>
       </c>
       <c r="F4">
-        <v>151.6503980840345</v>
+        <v>89.2147479778355</v>
       </c>
       <c r="G4">
-        <v>352.8227836055282</v>
+        <v>207.5628954350856</v>
       </c>
       <c r="H4">
-        <v>26.78054461346781</v>
+        <v>15.75478580066611</v>
       </c>
       <c r="I4">
-        <v>1282.796809738159</v>
+        <v>754.6593713795845</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>499.6727198827192</v>
+        <v>293.9535691230704</v>
       </c>
       <c r="C5">
-        <v>13.33469239335503</v>
+        <v>7.844695670207889</v>
       </c>
       <c r="D5">
-        <v>128.2709271973773</v>
+        <v>75.46078735946335</v>
       </c>
       <c r="E5">
-        <v>182.6568414774172</v>
+        <v>107.4555971149198</v>
       </c>
       <c r="F5">
-        <v>109.946538610925</v>
+        <v>64.68069228393075</v>
       </c>
       <c r="G5">
-        <v>243.326057658985</v>
+        <v>143.1468244379901</v>
       </c>
       <c r="H5">
-        <v>11.90246427265236</v>
+        <v>7.002127022518273</v>
       </c>
       <c r="I5">
-        <v>1189.110241493431</v>
+        <v>699.5442930121006</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>602.2006165394022</v>
+        <v>354.2699321296147</v>
       </c>
       <c r="C6">
-        <v>29.16963961046412</v>
+        <v>17.16027177857976</v>
       </c>
       <c r="D6">
-        <v>128.2709271973773</v>
+        <v>75.46078735946335</v>
       </c>
       <c r="E6">
-        <v>157.7490903668603</v>
+        <v>92.80256114470347</v>
       </c>
       <c r="F6">
-        <v>82.64946695579886</v>
+        <v>48.62203764792036</v>
       </c>
       <c r="G6">
-        <v>118.6214531087551</v>
+        <v>69.7840769135202</v>
       </c>
       <c r="H6">
-        <v>35.70739281795709</v>
+        <v>21.00638106755482</v>
       </c>
       <c r="I6">
-        <v>1154.368586596615</v>
+        <v>679.1060480413565</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>564.2049842489844</v>
+        <v>331.9173976036599</v>
       </c>
       <c r="C7">
-        <v>15.83494721710909</v>
+        <v>9.315576108371872</v>
       </c>
       <c r="D7">
-        <v>87.33339724076751</v>
+        <v>51.37755735112398</v>
       </c>
       <c r="E7">
-        <v>226.937287896185</v>
+        <v>133.5054388397489</v>
       </c>
       <c r="F7">
-        <v>48.52812738689106</v>
+        <v>28.54871935290737</v>
       </c>
       <c r="G7">
-        <v>60.83151441474624</v>
+        <v>35.78670610949752</v>
       </c>
       <c r="H7">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I7">
-        <v>1012.597106609173</v>
+        <v>595.7029906321983</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>420.9674815668531</v>
+        <v>247.6518904621643</v>
       </c>
       <c r="C8">
-        <v>13.33469239335503</v>
+        <v>7.844695670207889</v>
       </c>
       <c r="D8">
-        <v>81.87505991321953</v>
+        <v>48.16646001667874</v>
       </c>
       <c r="E8">
-        <v>188.1918972797632</v>
+        <v>110.7118273305234</v>
       </c>
       <c r="F8">
-        <v>37.15434753058847</v>
+        <v>21.8576132545697</v>
       </c>
       <c r="G8">
-        <v>79.08096873917012</v>
+        <v>46.52271794234678</v>
       </c>
       <c r="H8">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I8">
-        <v>828.043487593357</v>
+        <v>487.1315340655648</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>332.3110062225444</v>
+        <v>195.4959765682701</v>
       </c>
       <c r="C9">
-        <v>18.33520204086316</v>
+        <v>10.78645654653585</v>
       </c>
       <c r="D9">
-        <v>60.04171060302765</v>
+        <v>35.32207067889773</v>
       </c>
       <c r="E9">
-        <v>199.2620088844551</v>
+        <v>117.2242877617307</v>
       </c>
       <c r="F9">
-        <v>23.50581170302536</v>
+        <v>13.82828593656451</v>
       </c>
       <c r="G9">
-        <v>60.83151441474624</v>
+        <v>35.78670610949752</v>
       </c>
       <c r="H9">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I9">
-        <v>698.7506779709065</v>
+        <v>411.0695812349408</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>245.7653993388147</v>
+        <v>144.58187014804</v>
       </c>
       <c r="C10">
-        <v>12.50127411877034</v>
+        <v>7.354402190819898</v>
       </c>
       <c r="D10">
-        <v>16.37501198264391</v>
+        <v>9.633292003335749</v>
       </c>
       <c r="E10">
-        <v>152.2140345645144</v>
+        <v>89.54633092909984</v>
       </c>
       <c r="F10">
-        <v>22.74755971260518</v>
+        <v>13.38221219667533</v>
       </c>
       <c r="G10">
-        <v>57.7899386940089</v>
+        <v>33.99737080402265</v>
       </c>
       <c r="H10">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I10">
-        <v>508.881026445439</v>
+        <v>299.3707441498083</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>145.9514764171611</v>
+        <v>85.86211675049248</v>
       </c>
       <c r="C11">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D11">
-        <v>30.02085530151382</v>
+        <v>17.66103533944887</v>
       </c>
       <c r="E11">
-        <v>88.56089283753565</v>
+        <v>52.0996834496581</v>
       </c>
       <c r="F11">
-        <v>21.98930772218501</v>
+        <v>12.93613845678615</v>
       </c>
       <c r="G11">
-        <v>48.66521153179698</v>
+        <v>28.62936488759803</v>
       </c>
       <c r="H11">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I11">
-        <v>349.8312157225413</v>
+        <v>205.8029793510451</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>91.37044907933848</v>
+        <v>53.75252350289093</v>
       </c>
       <c r="C12">
-        <v>10.00101929501627</v>
+        <v>5.883521752655917</v>
       </c>
       <c r="D12">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E12">
-        <v>49.81550222111377</v>
+        <v>29.30607194043268</v>
       </c>
       <c r="F12">
-        <v>8.3407718946219</v>
+        <v>4.906811138780953</v>
       </c>
       <c r="G12">
-        <v>33.45733292811043</v>
+        <v>19.68268836022364</v>
       </c>
       <c r="I12">
-        <v>198.4434127457488</v>
+        <v>116.7427140294294</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>53.67636942614602</v>
+        <v>31.5773900446026</v>
       </c>
       <c r="C13">
-        <v>5.000509647508134</v>
+        <v>2.941760876327959</v>
       </c>
       <c r="D13">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E13">
-        <v>24.90775111055688</v>
+        <v>14.65303597021634</v>
       </c>
       <c r="F13">
-        <v>21.98930772218501</v>
+        <v>12.93613845678615</v>
       </c>
       <c r="G13">
-        <v>48.66521153179698</v>
+        <v>28.62936488759803</v>
       </c>
       <c r="I13">
-        <v>159.697486765741</v>
+        <v>93.94878756997633</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>32.56768482035826</v>
+        <v>19.15931530796113</v>
       </c>
       <c r="C14">
-        <v>4.167091372923445</v>
+        <v>2.451467396939965</v>
       </c>
       <c r="D14">
-        <v>8.187505991321954</v>
+        <v>4.816646001667874</v>
       </c>
       <c r="E14">
-        <v>2.767527901172989</v>
+        <v>1.628115107801816</v>
       </c>
       <c r="F14">
-        <v>22.74755971260518</v>
+        <v>13.38221219667533</v>
       </c>
       <c r="G14">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="I14">
-        <v>109.9778541679669</v>
+        <v>64.6991149822195</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>28.64750053642626</v>
+        <v>16.85310142829914</v>
       </c>
       <c r="C15">
-        <v>7.500764471262202</v>
+        <v>4.412641314491937</v>
       </c>
       <c r="D15">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E15">
-        <v>8.302583703518966</v>
+        <v>4.884345323405444</v>
       </c>
       <c r="F15">
-        <v>13.64853582756311</v>
+        <v>8.029327318005196</v>
       </c>
       <c r="G15">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="H15">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I15">
-        <v>104.5860142699851</v>
+        <v>61.52713756763514</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>25.33042152694532</v>
+        <v>14.90168968396977</v>
       </c>
       <c r="C16">
-        <v>2.500254823754067</v>
+        <v>1.470880438163979</v>
       </c>
       <c r="D16">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E16">
-        <v>22.14022320938391</v>
+        <v>13.02492086241453</v>
       </c>
       <c r="F16">
-        <v>12.13203184672276</v>
+        <v>7.137179838226841</v>
       </c>
       <c r="G16">
-        <v>39.54048436958506</v>
+        <v>23.26135897117339</v>
       </c>
       <c r="I16">
-        <v>107.1017531039391</v>
+        <v>63.00712712839376</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>65.43692227794206</v>
+        <v>38.49603168358856</v>
       </c>
       <c r="C17">
-        <v>7.500764471262202</v>
+        <v>4.412641314491937</v>
       </c>
       <c r="D17">
-        <v>21.83334931019188</v>
+        <v>12.84438933778099</v>
       </c>
       <c r="E17">
-        <v>16.60516740703793</v>
+        <v>9.768690646810889</v>
       </c>
       <c r="F17">
-        <v>29.57182762638674</v>
+        <v>17.39687585567793</v>
       </c>
       <c r="G17">
-        <v>69.95624157695816</v>
+        <v>41.15471202592217</v>
       </c>
       <c r="H17">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I17">
-        <v>212.3920807038606</v>
+        <v>124.9486067420873</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>171.2818979441064</v>
+        <v>100.7638064344622</v>
       </c>
       <c r="C18">
-        <v>5.833927922092823</v>
+        <v>3.432054355715953</v>
       </c>
       <c r="D18">
-        <v>49.12503594793171</v>
+        <v>28.89987601000724</v>
       </c>
       <c r="E18">
-        <v>99.63100444222754</v>
+        <v>58.61214388086537</v>
       </c>
       <c r="F18">
-        <v>34.87959155932796</v>
+        <v>20.51939203490217</v>
       </c>
       <c r="G18">
-        <v>155.1203617576028</v>
+        <v>91.2561005792187</v>
       </c>
       <c r="H18">
-        <v>5.951232136326181</v>
+        <v>3.501063511259137</v>
       </c>
       <c r="I18">
-        <v>521.8230517096155</v>
+        <v>306.9844368064308</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>329.5970324875145</v>
+        <v>193.8993669592732</v>
       </c>
       <c r="C19">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D19">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E19">
-        <v>196.4944809832822</v>
+        <v>115.5961726539289</v>
       </c>
       <c r="F19">
-        <v>66.7261751569752</v>
+        <v>39.25448911024763</v>
       </c>
       <c r="G19">
-        <v>218.9934518930864</v>
+        <v>128.8321419941911</v>
       </c>
       <c r="H19">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I19">
-        <v>905.8644846514109</v>
+        <v>532.9130204819137</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>567.2205106212396</v>
+        <v>333.6914082803227</v>
       </c>
       <c r="C20">
-        <v>15.83494721710909</v>
+        <v>9.315576108371872</v>
       </c>
       <c r="D20">
-        <v>95.52090323208945</v>
+        <v>56.19420335279185</v>
       </c>
       <c r="E20">
-        <v>238.0073995008769</v>
+        <v>140.0178992709561</v>
       </c>
       <c r="F20">
-        <v>82.64946695579886</v>
+        <v>48.62203764792036</v>
       </c>
       <c r="G20">
-        <v>307.1991477944684</v>
+        <v>180.7228658529626</v>
       </c>
       <c r="H20">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I20">
-        <v>1315.359223526071</v>
+        <v>773.8155857802143</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>635.0698539969864</v>
+        <v>373.6066485052419</v>
       </c>
       <c r="C21">
-        <v>17.50178376627847</v>
+        <v>10.29616306714786</v>
       </c>
       <c r="D21">
-        <v>125.5417585336033</v>
+        <v>73.85523869224072</v>
       </c>
       <c r="E21">
-        <v>202.0295367856281</v>
+        <v>118.8524028695326</v>
       </c>
       <c r="F21">
-        <v>94.02324681210143</v>
+        <v>55.31314374625802</v>
       </c>
       <c r="G21">
-        <v>368.0306622092147</v>
+        <v>216.5095719624601</v>
       </c>
       <c r="H21">
-        <v>61.00012939734337</v>
+        <v>35.88590099040615</v>
       </c>
       <c r="I21">
-        <v>1503.196971501156</v>
+        <v>884.3190698332874</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>443.5839293587686</v>
+        <v>260.9569705371373</v>
       </c>
       <c r="C22">
-        <v>27.50280306129474</v>
+        <v>16.17968481980378</v>
       </c>
       <c r="D22">
-        <v>125.5417585336033</v>
+        <v>73.85523869224072</v>
       </c>
       <c r="E22">
-        <v>182.6568414774172</v>
+        <v>107.4555971149198</v>
       </c>
       <c r="F22">
-        <v>128.9028383714294</v>
+        <v>75.83253578116017</v>
       </c>
       <c r="G22">
-        <v>656.980355679259</v>
+        <v>386.4964259825733</v>
       </c>
       <c r="H22">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I22">
-        <v>1574.095374686261</v>
+        <v>926.0280481947239</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>312.1069795284333</v>
+        <v>183.6101050346275</v>
       </c>
       <c r="C23">
-        <v>20.00203859003254</v>
+        <v>11.76704350531183</v>
       </c>
       <c r="D23">
-        <v>100.9792405596374</v>
+        <v>59.40530068723712</v>
       </c>
       <c r="E23">
-        <v>149.4465066633413</v>
+        <v>87.91821582129805</v>
       </c>
       <c r="F23">
-        <v>163.0241779403372</v>
+        <v>95.90585407617318</v>
       </c>
       <c r="G23">
-        <v>602.2319927059876</v>
+        <v>354.2883904840256</v>
       </c>
       <c r="H23">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I23">
-        <v>1365.644632396748</v>
+        <v>803.3981001424507</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>351.6103750049791</v>
+        <v>206.8496448989136</v>
       </c>
       <c r="C24">
-        <v>30.8364761596335</v>
+        <v>18.14085873735575</v>
       </c>
       <c r="D24">
-        <v>81.87505991321953</v>
+        <v>48.16646001667874</v>
       </c>
       <c r="E24">
-        <v>141.1439229598224</v>
+        <v>83.03387049789262</v>
       </c>
       <c r="F24">
-        <v>150.8921460936144</v>
+        <v>88.76867423794633</v>
       </c>
       <c r="G24">
-        <v>754.3107787428534</v>
+        <v>443.7551557577695</v>
       </c>
       <c r="H24">
-        <v>38.68300888612018</v>
+        <v>22.75691282318438</v>
       </c>
       <c r="I24">
-        <v>1549.351767760243</v>
+        <v>911.4715769697409</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>328.3908219386125</v>
+        <v>193.189762688608</v>
       </c>
       <c r="C25">
-        <v>28.33622133587944</v>
+        <v>16.66997829919177</v>
       </c>
       <c r="D25">
-        <v>133.7292645249253</v>
+        <v>78.67188469390857</v>
       </c>
       <c r="E25">
-        <v>185.4243693785901</v>
+        <v>109.0837122227216</v>
       </c>
       <c r="F25">
-        <v>129.6610903618496</v>
+        <v>76.27860952104938</v>
       </c>
       <c r="G25">
-        <v>739.1029001391668</v>
+        <v>434.8084792303952</v>
       </c>
       <c r="H25">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I25">
-        <v>1562.498364088002</v>
+        <v>919.2056171896521</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>334.4218746831234</v>
+        <v>196.737784041934</v>
       </c>
       <c r="C26">
-        <v>17.50178376627847</v>
+        <v>10.29616306714786</v>
       </c>
       <c r="D26">
-        <v>95.52090323208945</v>
+        <v>56.19420335279185</v>
       </c>
       <c r="E26">
-        <v>130.0738113551304</v>
+        <v>76.52141006668533</v>
       </c>
       <c r="F26">
-        <v>131.1775943426899</v>
+        <v>77.17075700082772</v>
       </c>
       <c r="G26">
-        <v>809.0591417161246</v>
+        <v>475.9631912563172</v>
       </c>
       <c r="H26">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I26">
-        <v>1535.608805504415</v>
+        <v>903.3866993194814</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>379.0516649925031</v>
+        <v>222.9931420565475</v>
       </c>
       <c r="C27">
-        <v>12.50127411877034</v>
+        <v>7.354402190819898</v>
       </c>
       <c r="D27">
-        <v>188.3126378004049</v>
+        <v>110.7828580383611</v>
       </c>
       <c r="E27">
-        <v>143.9114508609954</v>
+        <v>84.66198560569441</v>
       </c>
       <c r="F27">
-        <v>131.1775943426899</v>
+        <v>77.17075700082772</v>
       </c>
       <c r="G27">
-        <v>510.9847210838682</v>
+        <v>300.6083313197793</v>
       </c>
       <c r="H27">
-        <v>29.7561606816309</v>
+        <v>17.50531755629568</v>
       </c>
       <c r="I27">
-        <v>1395.695503880863</v>
+        <v>821.0767937683256</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>394.7324021282312</v>
+        <v>232.2179975751954</v>
       </c>
       <c r="C28">
-        <v>23.33571168837129</v>
+        <v>13.72821742286381</v>
       </c>
       <c r="D28">
-        <v>92.79173456831546</v>
+        <v>54.58865468556923</v>
       </c>
       <c r="E28">
-        <v>135.6088671574764</v>
+        <v>79.77764028228897</v>
       </c>
       <c r="F28">
-        <v>140.276618227732</v>
+        <v>82.52364187949786</v>
       </c>
       <c r="G28">
-        <v>650.8972042377845</v>
+        <v>382.9177553716236</v>
       </c>
       <c r="H28">
-        <v>22.31712051122318</v>
+        <v>13.12898816722176</v>
       </c>
       <c r="I28">
-        <v>1459.959658519134</v>
+        <v>858.8828953842607</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>414.031770910666</v>
+        <v>243.5716659058392</v>
       </c>
       <c r="C29">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D29">
-        <v>141.9167705162472</v>
+        <v>83.48853069557649</v>
       </c>
       <c r="E29">
-        <v>185.4243693785901</v>
+        <v>109.0837122227216</v>
       </c>
       <c r="F29">
-        <v>126.6280824001689</v>
+        <v>74.49431456149267</v>
       </c>
       <c r="G29">
-        <v>489.6936910387072</v>
+        <v>288.0829841814551</v>
       </c>
       <c r="H29">
-        <v>22.31712051122318</v>
+        <v>13.12898816722176</v>
       </c>
       <c r="I29">
-        <v>1391.679660599788</v>
+        <v>818.7143044457387</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>553.349089308865</v>
+        <v>325.5309591676728</v>
       </c>
       <c r="C30">
-        <v>20.83545686461722</v>
+        <v>12.25733698469983</v>
       </c>
       <c r="D30">
-        <v>111.8959152147334</v>
+        <v>65.82749535612759</v>
       </c>
       <c r="E30">
-        <v>177.1217856750713</v>
+        <v>104.1993668993162</v>
       </c>
       <c r="F30">
-        <v>82.64946695579886</v>
+        <v>48.62203764792036</v>
       </c>
       <c r="G30">
-        <v>364.9890864884772</v>
+        <v>214.7202366569852</v>
       </c>
       <c r="H30">
-        <v>19.34150444306009</v>
+        <v>11.37845641159219</v>
       </c>
       <c r="I30">
-        <v>1330.182304950623</v>
+        <v>782.5358891243142</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>536.4621416242346</v>
+        <v>315.5964993783596</v>
       </c>
       <c r="C31">
-        <v>30.8364761596335</v>
+        <v>18.14085873735575</v>
       </c>
       <c r="D31">
-        <v>87.33339724076751</v>
+        <v>51.37755735112398</v>
       </c>
       <c r="E31">
-        <v>268.4502064137798</v>
+        <v>157.9271654567761</v>
       </c>
       <c r="F31">
-        <v>39.42910350184899</v>
+        <v>23.19583447423724</v>
       </c>
       <c r="G31">
-        <v>185.5361189649761</v>
+        <v>109.1494536339675</v>
       </c>
       <c r="H31">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I31">
-        <v>1151.023059973404</v>
+        <v>677.1379007874498</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>459.2646664944968</v>
+        <v>270.1818260557852</v>
       </c>
       <c r="C32">
-        <v>37.50382235631102</v>
+        <v>22.06320657245969</v>
       </c>
       <c r="D32">
-        <v>62.77087926680166</v>
+        <v>36.92761934612036</v>
       </c>
       <c r="E32">
-        <v>235.239871599704</v>
+        <v>138.3897841631543</v>
       </c>
       <c r="F32">
-        <v>40.94560748268934</v>
+        <v>24.0879819540156</v>
       </c>
       <c r="G32">
-        <v>155.1203617576028</v>
+        <v>91.2561005792187</v>
       </c>
       <c r="H32">
-        <v>11.90246427265236</v>
+        <v>7.002127022518273</v>
       </c>
       <c r="I32">
-        <v>1002.747673230258</v>
+        <v>589.9086456932722</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>333.5172167714467</v>
+        <v>196.2055808389351</v>
       </c>
       <c r="C33">
-        <v>39.17065890548038</v>
+        <v>23.04379353123568</v>
       </c>
       <c r="D33">
-        <v>70.9583852581236</v>
+        <v>41.74426534778824</v>
       </c>
       <c r="E33">
-        <v>235.239871599704</v>
+        <v>138.3897841631543</v>
       </c>
       <c r="F33">
-        <v>27.29707165512623</v>
+        <v>16.05865463601039</v>
       </c>
       <c r="G33">
-        <v>97.33042306359395</v>
+        <v>57.25872977519605</v>
       </c>
       <c r="H33">
-        <v>11.90246427265236</v>
+        <v>7.002127022518273</v>
       </c>
       <c r="I33">
-        <v>815.416091526127</v>
+        <v>479.7029353148381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>249.0824783482955</v>
+        <v>146.5332818923694</v>
       </c>
       <c r="C34">
-        <v>30.00305788504881</v>
+        <v>17.65056525796775</v>
       </c>
       <c r="D34">
-        <v>40.93752995660977</v>
+        <v>24.08323000833937</v>
       </c>
       <c r="E34">
-        <v>154.9815624656873</v>
+        <v>91.17444603690167</v>
       </c>
       <c r="F34">
-        <v>15.92329179882363</v>
+        <v>9.367548537672729</v>
       </c>
       <c r="G34">
-        <v>97.33042306359395</v>
+        <v>57.25872977519605</v>
       </c>
       <c r="I34">
-        <v>588.258343518059</v>
+        <v>346.067801508447</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>173.6943190419107</v>
+        <v>102.1830149757927</v>
       </c>
       <c r="C35">
-        <v>15.0015289425244</v>
+        <v>8.825282628983874</v>
       </c>
       <c r="D35">
-        <v>27.29168663773983</v>
+        <v>16.05548667222625</v>
       </c>
       <c r="E35">
-        <v>127.3062834539574</v>
+        <v>74.89329495888353</v>
       </c>
       <c r="F35">
-        <v>16.6815437892438</v>
+        <v>9.813622277561906</v>
       </c>
       <c r="G35">
-        <v>57.7899386940089</v>
+        <v>33.99737080402265</v>
       </c>
       <c r="H35">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I35">
-        <v>420.7409166275482</v>
+        <v>247.5186040731005</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>99.21081764720252</v>
+        <v>58.36495126221491</v>
       </c>
       <c r="C36">
-        <v>32.50331270880287</v>
+        <v>19.12144569613174</v>
       </c>
       <c r="D36">
-        <v>2.729168663773985</v>
+        <v>1.605548667222624</v>
       </c>
       <c r="E36">
-        <v>60.88561382580574</v>
+        <v>35.81853237163995</v>
       </c>
       <c r="F36">
-        <v>49.28637937731123</v>
+        <v>28.99479309279654</v>
       </c>
       <c r="G36">
-        <v>82.12254445990737</v>
+        <v>48.31205324782167</v>
       </c>
       <c r="H36">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I36">
-        <v>328.2256447168853</v>
+        <v>193.0925902156422</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>52.47015887724385</v>
+        <v>30.86778577393737</v>
       </c>
       <c r="C37">
-        <v>16.66836549169378</v>
+        <v>9.805869587759862</v>
       </c>
       <c r="D37">
-        <v>2.729168663773985</v>
+        <v>1.605548667222624</v>
       </c>
       <c r="E37">
-        <v>22.14022320938391</v>
+        <v>13.02492086241453</v>
       </c>
       <c r="F37">
-        <v>31.08833160722709</v>
+        <v>18.28902333545629</v>
       </c>
       <c r="G37">
-        <v>63.87309013548353</v>
+        <v>37.57604141497241</v>
       </c>
       <c r="H37">
-        <v>4.463424102244636</v>
+        <v>2.625797633444352</v>
       </c>
       <c r="I37">
-        <v>193.4327620870508</v>
+        <v>113.7949872752074</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>37.69407965319244</v>
+        <v>22.17513345828833</v>
       </c>
       <c r="C38">
-        <v>4.167091372923445</v>
+        <v>2.451467396939965</v>
       </c>
       <c r="D38">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="F38">
-        <v>19.71455175092449</v>
+        <v>11.59791723711862</v>
       </c>
       <c r="G38">
-        <v>60.83151441474624</v>
+        <v>35.78670610949752</v>
       </c>
       <c r="H38">
-        <v>7.439040170407726</v>
+        <v>4.37632938907392</v>
       </c>
       <c r="I38">
-        <v>135.3046146897423</v>
+        <v>79.5986509253636</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>27.44128998752409</v>
+        <v>16.14349715763391</v>
       </c>
       <c r="C39">
-        <v>5.833927922092823</v>
+        <v>3.432054355715953</v>
       </c>
       <c r="D39">
-        <v>13.64584331886992</v>
+        <v>8.027743336113124</v>
       </c>
       <c r="F39">
-        <v>9.099023885042076</v>
+        <v>5.352884878670132</v>
       </c>
       <c r="G39">
-        <v>54.74836297327161</v>
+        <v>32.20803549854778</v>
       </c>
       <c r="H39">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I39">
-        <v>112.2562561208821</v>
+        <v>66.03948110449568</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>27.74284262474964</v>
+        <v>16.32089822530022</v>
       </c>
       <c r="C40">
-        <v>5.000509647508134</v>
+        <v>2.941760876327959</v>
       </c>
       <c r="D40">
-        <v>5.458337327547969</v>
+        <v>3.211097334445248</v>
       </c>
       <c r="E40">
-        <v>24.90775111055688</v>
+        <v>14.65303597021634</v>
       </c>
       <c r="F40">
-        <v>15.16503980840346</v>
+        <v>8.921474797783553</v>
       </c>
       <c r="G40">
-        <v>48.66521153179698</v>
+        <v>28.62936488759803</v>
       </c>
       <c r="H40">
-        <v>2.97561606816309</v>
+        <v>1.750531755629568</v>
       </c>
       <c r="I40">
-        <v>129.9153081187262</v>
+        <v>76.42816384730091</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>70.86486974800181</v>
+        <v>41.68925090158209</v>
       </c>
       <c r="C41">
-        <v>6.667346196677513</v>
+        <v>3.922347835103944</v>
       </c>
       <c r="D41">
-        <v>10.91667465509594</v>
+        <v>6.422194668890497</v>
       </c>
       <c r="E41">
-        <v>19.37269530821092</v>
+        <v>11.39680575461271</v>
       </c>
       <c r="F41">
-        <v>14.40678781798328</v>
+        <v>8.475401057894373</v>
       </c>
       <c r="G41">
-        <v>76.03939301843276</v>
+        <v>44.73338263687192</v>
       </c>
       <c r="H41">
-        <v>1.487808034081545</v>
+        <v>0.8752658778147842</v>
       </c>
       <c r="I41">
-        <v>199.7555747784838</v>
+        <v>117.5146487327703</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>164.346187287919</v>
+        <v>96.68358187813718</v>
       </c>
       <c r="C42">
-        <v>13.33469239335503</v>
+        <v>7.844695670207889</v>
       </c>
       <c r="D42">
-        <v>40.93752995660977</v>
+        <v>24.08323000833937</v>
       </c>
       <c r="E42">
-        <v>110.7011160469195</v>
+        <v>65.12460431207263</v>
       </c>
       <c r="F42">
-        <v>37.15434753058847</v>
+        <v>21.8576132545697</v>
       </c>
       <c r="G42">
-        <v>133.8293317124417</v>
+        <v>78.73075344089457</v>
       </c>
       <c r="H42">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I42">
-        <v>509.2300531323227</v>
+        <v>299.57607383111</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>324.1690850174549</v>
+        <v>190.7061477412797</v>
       </c>
       <c r="C43">
-        <v>14.16811066793972</v>
+        <v>8.334989149595884</v>
       </c>
       <c r="D43">
-        <v>46.39586728415773</v>
+        <v>27.29432734278462</v>
       </c>
       <c r="E43">
-        <v>193.7269530821092</v>
+        <v>113.9680575461271</v>
       </c>
       <c r="F43">
-        <v>63.69316719529453</v>
+        <v>37.47019415069092</v>
       </c>
       <c r="G43">
-        <v>167.2866646405521</v>
+        <v>98.4134418011182</v>
       </c>
       <c r="H43">
-        <v>8.926848204489271</v>
+        <v>5.251595266888705</v>
       </c>
       <c r="I43">
-        <v>818.3666960919975</v>
+        <v>481.4387529984851</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>528.9233256935963</v>
+        <v>311.161472686702</v>
       </c>
       <c r="C44">
-        <v>11.66785584418565</v>
+        <v>6.864108711431905</v>
       </c>
       <c r="D44">
-        <v>103.7084092234114</v>
+        <v>61.01084935445972</v>
       </c>
       <c r="E44">
-        <v>240.7749274020499</v>
+        <v>141.6460143787579</v>
       </c>
       <c r="F44">
-        <v>84.92422292705939</v>
+        <v>49.9602588675879</v>
       </c>
       <c r="G44">
-        <v>273.7418148663581</v>
+        <v>161.0401774927389</v>
       </c>
       <c r="H44">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I44">
-        <v>1261.594252365639</v>
+        <v>742.1860720254559</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>616.9766957634541</v>
+        <v>362.9625844452638</v>
       </c>
       <c r="C45">
-        <v>17.50178376627847</v>
+        <v>10.29616306714786</v>
       </c>
       <c r="D45">
-        <v>117.3542525422813</v>
+        <v>69.03859269057284</v>
       </c>
       <c r="E45">
-        <v>207.5645925879741</v>
+        <v>122.1086330851362</v>
       </c>
       <c r="F45">
-        <v>84.92422292705939</v>
+        <v>49.9602588675879</v>
       </c>
       <c r="G45">
-        <v>319.3654506774178</v>
+        <v>187.880207074862</v>
       </c>
       <c r="H45">
-        <v>34.21958478387554</v>
+        <v>20.13111518974003</v>
       </c>
       <c r="I45">
-        <v>1397.906583048341</v>
+        <v>822.3775544203106</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>519.2736413023791</v>
+        <v>305.4846385213802</v>
       </c>
       <c r="C46">
-        <v>24.16912996295598</v>
+        <v>14.2185109022518</v>
       </c>
       <c r="D46">
-        <v>147.3751078437951</v>
+        <v>86.69962803002173</v>
       </c>
       <c r="E46">
-        <v>185.4243693785901</v>
+        <v>109.0837122227216</v>
       </c>
       <c r="F46">
-        <v>162.265925949917</v>
+        <v>95.45978033628401</v>
       </c>
       <c r="G46">
-        <v>617.4398713096741</v>
+        <v>363.2350670113999</v>
       </c>
       <c r="H46">
-        <v>26.78054461346781</v>
+        <v>15.75478580066611</v>
       </c>
       <c r="I46">
-        <v>1682.728590360779</v>
+        <v>989.9361228247254</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>355.8321119261366</v>
+        <v>209.3332598462418</v>
       </c>
       <c r="C47">
-        <v>30.00305788504881</v>
+        <v>17.65056525796775</v>
       </c>
       <c r="D47">
-        <v>84.60422857699348</v>
+        <v>49.77200868390135</v>
       </c>
       <c r="E47">
-        <v>163.2841461692063</v>
+        <v>96.05879136030714</v>
       </c>
       <c r="F47">
-        <v>198.6620214900853</v>
+        <v>116.8713198509645</v>
       </c>
       <c r="G47">
-        <v>434.9453280654354</v>
+        <v>255.8749486829074</v>
       </c>
       <c r="H47">
-        <v>25.29273657938627</v>
+        <v>14.87951992285133</v>
       </c>
       <c r="I47">
-        <v>1292.623630692292</v>
+        <v>760.4404136051412</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>390.2091125698482</v>
+        <v>229.5569815602009</v>
       </c>
       <c r="C48">
-        <v>34.17014925797226</v>
+        <v>20.10203265490772</v>
       </c>
       <c r="D48">
-        <v>204.6876497830488</v>
+        <v>120.4161500416968</v>
       </c>
       <c r="E48">
-        <v>174.3542577738982</v>
+        <v>102.5712517915144</v>
       </c>
       <c r="F48">
-        <v>191.8377535763038</v>
+        <v>112.8566561919619</v>
       </c>
       <c r="G48">
-        <v>568.7746597778772</v>
+        <v>334.6057021238019</v>
       </c>
       <c r="H48">
-        <v>35.70739281795709</v>
+        <v>21.00638106755482</v>
       </c>
       <c r="I48">
-        <v>1599.740975556906</v>
+        <v>941.1151554316385</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>328.3908219386125</v>
+        <v>193.189762688608</v>
       </c>
       <c r="C49">
-        <v>28.33622133587944</v>
+        <v>16.66997829919177</v>
       </c>
       <c r="D49">
-        <v>133.7292645249253</v>
+        <v>78.67188469390857</v>
       </c>
       <c r="E49">
-        <v>185.4243693785901</v>
+        <v>109.0837122227216</v>
       </c>
       <c r="F49">
-        <v>129.6610903618496</v>
+        <v>76.27860952104938</v>
       </c>
       <c r="G49">
-        <v>739.1029001391668</v>
+        <v>434.8084792303952</v>
       </c>
       <c r="H49">
-        <v>17.85369640897854</v>
+        <v>10.50319053377741</v>
       </c>
       <c r="I49">
-        <v>1562.498364088002</v>
+        <v>919.2056171896521</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_재비산_TSP.xlsx
+++ b/output/경기동로_E_가을_배출량/경기동로_E_가을_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>216.7841046882269</v>
+        <v>368.4973226896092</v>
       </c>
       <c r="C2">
-        <v>9.805869587759862</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D2">
-        <v>54.58865468556923</v>
+        <v>92.79173456831546</v>
       </c>
       <c r="E2">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F2">
-        <v>66.91106098337664</v>
+        <v>113.7377985630259</v>
       </c>
       <c r="G2">
-        <v>357.8670610949753</v>
+        <v>608.3151441474621</v>
       </c>
       <c r="H2">
-        <v>7.877392900333057</v>
+        <v>13.39027230673391</v>
       </c>
       <c r="I2">
-        <v>801.7523597615391</v>
+        <v>1362.847144430182</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>216.7841046882269</v>
+        <v>368.4973226896092</v>
       </c>
       <c r="C3">
-        <v>14.7088043816398</v>
+        <v>25.00254823754067</v>
       </c>
       <c r="D3">
-        <v>65.82749535612759</v>
+        <v>111.8959152147334</v>
       </c>
       <c r="E3">
-        <v>86.29010071349622</v>
+        <v>146.6789787621684</v>
       </c>
       <c r="F3">
-        <v>79.40112570027361</v>
+        <v>134.9688542947908</v>
       </c>
       <c r="G3">
-        <v>341.7630433457014</v>
+        <v>580.9409626608265</v>
       </c>
       <c r="H3">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I3">
-        <v>810.0262694523541</v>
+        <v>1376.911430064158</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>256.6993449131459</v>
+        <v>436.3466660653556</v>
       </c>
       <c r="C4">
-        <v>12.25733698469983</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D4">
-        <v>73.85523869224072</v>
+        <v>125.5417585336033</v>
       </c>
       <c r="E4">
-        <v>99.31502157591078</v>
+        <v>168.8192019715523</v>
       </c>
       <c r="F4">
-        <v>89.2147479778355</v>
+        <v>151.6503980840345</v>
       </c>
       <c r="G4">
-        <v>207.5628954350856</v>
+        <v>352.8227836055282</v>
       </c>
       <c r="H4">
-        <v>15.75478580066611</v>
+        <v>26.78054461346781</v>
       </c>
       <c r="I4">
-        <v>754.6593713795845</v>
+        <v>1282.796809738159</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>293.9535691230704</v>
+        <v>499.6727198827192</v>
       </c>
       <c r="C5">
-        <v>7.844695670207889</v>
+        <v>13.33469239335503</v>
       </c>
       <c r="D5">
-        <v>75.46078735946335</v>
+        <v>128.2709271973773</v>
       </c>
       <c r="E5">
-        <v>107.4555971149198</v>
+        <v>182.6568414774172</v>
       </c>
       <c r="F5">
-        <v>64.68069228393075</v>
+        <v>109.946538610925</v>
       </c>
       <c r="G5">
-        <v>143.1468244379901</v>
+        <v>243.326057658985</v>
       </c>
       <c r="H5">
-        <v>7.002127022518273</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I5">
-        <v>699.5442930121006</v>
+        <v>1189.110241493431</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>354.2699321296147</v>
+        <v>602.2006165394022</v>
       </c>
       <c r="C6">
-        <v>17.16027177857976</v>
+        <v>29.16963961046412</v>
       </c>
       <c r="D6">
-        <v>75.46078735946335</v>
+        <v>128.2709271973773</v>
       </c>
       <c r="E6">
-        <v>92.80256114470347</v>
+        <v>157.7490903668603</v>
       </c>
       <c r="F6">
-        <v>48.62203764792036</v>
+        <v>82.64946695579886</v>
       </c>
       <c r="G6">
-        <v>69.7840769135202</v>
+        <v>118.6214531087551</v>
       </c>
       <c r="H6">
-        <v>21.00638106755482</v>
+        <v>35.70739281795709</v>
       </c>
       <c r="I6">
-        <v>679.1060480413565</v>
+        <v>1154.368586596615</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>331.9173976036599</v>
+        <v>564.2049842489844</v>
       </c>
       <c r="C7">
-        <v>9.315576108371872</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D7">
-        <v>51.37755735112398</v>
+        <v>87.33339724076751</v>
       </c>
       <c r="E7">
-        <v>133.5054388397489</v>
+        <v>226.937287896185</v>
       </c>
       <c r="F7">
-        <v>28.54871935290737</v>
+        <v>48.52812738689106</v>
       </c>
       <c r="G7">
-        <v>35.78670610949752</v>
+        <v>60.83151441474624</v>
       </c>
       <c r="H7">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I7">
-        <v>595.7029906321983</v>
+        <v>1012.597106609173</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>247.6518904621643</v>
+        <v>420.9674815668531</v>
       </c>
       <c r="C8">
-        <v>7.844695670207889</v>
+        <v>13.33469239335503</v>
       </c>
       <c r="D8">
-        <v>48.16646001667874</v>
+        <v>81.87505991321953</v>
       </c>
       <c r="E8">
-        <v>110.7118273305234</v>
+        <v>188.1918972797632</v>
       </c>
       <c r="F8">
-        <v>21.8576132545697</v>
+        <v>37.15434753058847</v>
       </c>
       <c r="G8">
-        <v>46.52271794234678</v>
+        <v>79.08096873917012</v>
       </c>
       <c r="H8">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I8">
-        <v>487.1315340655648</v>
+        <v>828.043487593357</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>195.4959765682701</v>
+        <v>332.3110062225444</v>
       </c>
       <c r="C9">
-        <v>10.78645654653585</v>
+        <v>18.33520204086316</v>
       </c>
       <c r="D9">
-        <v>35.32207067889773</v>
+        <v>60.04171060302765</v>
       </c>
       <c r="E9">
-        <v>117.2242877617307</v>
+        <v>199.2620088844551</v>
       </c>
       <c r="F9">
-        <v>13.82828593656451</v>
+        <v>23.50581170302536</v>
       </c>
       <c r="G9">
-        <v>35.78670610949752</v>
+        <v>60.83151441474624</v>
       </c>
       <c r="H9">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I9">
-        <v>411.0695812349408</v>
+        <v>698.7506779709065</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>144.58187014804</v>
+        <v>245.7653993388147</v>
       </c>
       <c r="C10">
-        <v>7.354402190819898</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D10">
-        <v>9.633292003335749</v>
+        <v>16.37501198264391</v>
       </c>
       <c r="E10">
-        <v>89.54633092909984</v>
+        <v>152.2140345645144</v>
       </c>
       <c r="F10">
-        <v>13.38221219667533</v>
+        <v>22.74755971260518</v>
       </c>
       <c r="G10">
-        <v>33.99737080402265</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="H10">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I10">
-        <v>299.3707441498083</v>
+        <v>508.881026445439</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>85.86211675049248</v>
+        <v>145.9514764171611</v>
       </c>
       <c r="C11">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D11">
-        <v>17.66103533944887</v>
+        <v>30.02085530151382</v>
       </c>
       <c r="E11">
-        <v>52.0996834496581</v>
+        <v>88.56089283753565</v>
       </c>
       <c r="F11">
-        <v>12.93613845678615</v>
+        <v>21.98930772218501</v>
       </c>
       <c r="G11">
-        <v>28.62936488759803</v>
+        <v>48.66521153179698</v>
       </c>
       <c r="H11">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I11">
-        <v>205.8029793510451</v>
+        <v>349.8312157225413</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>53.75252350289093</v>
+        <v>91.37044907933848</v>
       </c>
       <c r="C12">
-        <v>5.883521752655917</v>
+        <v>10.00101929501627</v>
       </c>
       <c r="D12">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E12">
-        <v>29.30607194043268</v>
+        <v>49.81550222111377</v>
       </c>
       <c r="F12">
-        <v>4.906811138780953</v>
+        <v>8.3407718946219</v>
       </c>
       <c r="G12">
-        <v>19.68268836022364</v>
+        <v>33.45733292811043</v>
       </c>
       <c r="I12">
-        <v>116.7427140294294</v>
+        <v>198.4434127457488</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>31.5773900446026</v>
+        <v>53.67636942614602</v>
       </c>
       <c r="C13">
-        <v>2.941760876327959</v>
+        <v>5.000509647508134</v>
       </c>
       <c r="D13">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E13">
-        <v>14.65303597021634</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F13">
-        <v>12.93613845678615</v>
+        <v>21.98930772218501</v>
       </c>
       <c r="G13">
-        <v>28.62936488759803</v>
+        <v>48.66521153179698</v>
       </c>
       <c r="I13">
-        <v>93.94878756997633</v>
+        <v>159.697486765741</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>19.15931530796113</v>
+        <v>32.56768482035826</v>
       </c>
       <c r="C14">
-        <v>2.451467396939965</v>
+        <v>4.167091372923445</v>
       </c>
       <c r="D14">
-        <v>4.816646001667874</v>
+        <v>8.187505991321954</v>
       </c>
       <c r="E14">
-        <v>1.628115107801816</v>
+        <v>2.767527901172989</v>
       </c>
       <c r="F14">
-        <v>13.38221219667533</v>
+        <v>22.74755971260518</v>
       </c>
       <c r="G14">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="I14">
-        <v>64.6991149822195</v>
+        <v>109.9778541679669</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,28 +806,28 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>16.85310142829914</v>
+        <v>28.64750053642626</v>
       </c>
       <c r="C15">
-        <v>4.412641314491937</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D15">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E15">
-        <v>4.884345323405444</v>
+        <v>8.302583703518966</v>
       </c>
       <c r="F15">
-        <v>8.029327318005196</v>
+        <v>13.64853582756311</v>
       </c>
       <c r="G15">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="H15">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I15">
-        <v>61.52713756763514</v>
+        <v>104.5860142699851</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,25 +835,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>14.90168968396977</v>
+        <v>25.33042152694532</v>
       </c>
       <c r="C16">
-        <v>1.470880438163979</v>
+        <v>2.500254823754067</v>
       </c>
       <c r="D16">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E16">
-        <v>13.02492086241453</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F16">
-        <v>7.137179838226841</v>
+        <v>12.13203184672276</v>
       </c>
       <c r="G16">
-        <v>23.26135897117339</v>
+        <v>39.54048436958506</v>
       </c>
       <c r="I16">
-        <v>63.00712712839376</v>
+        <v>107.1017531039391</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -861,28 +861,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>38.49603168358856</v>
+        <v>65.43692227794206</v>
       </c>
       <c r="C17">
-        <v>4.412641314491937</v>
+        <v>7.500764471262202</v>
       </c>
       <c r="D17">
-        <v>12.84438933778099</v>
+        <v>21.83334931019188</v>
       </c>
       <c r="E17">
-        <v>9.768690646810889</v>
+        <v>16.60516740703793</v>
       </c>
       <c r="F17">
-        <v>17.39687585567793</v>
+        <v>29.57182762638674</v>
       </c>
       <c r="G17">
-        <v>41.15471202592217</v>
+        <v>69.95624157695816</v>
       </c>
       <c r="H17">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I17">
-        <v>124.9486067420873</v>
+        <v>212.3920807038606</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -890,28 +890,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>100.7638064344622</v>
+        <v>171.2818979441064</v>
       </c>
       <c r="C18">
-        <v>3.432054355715953</v>
+        <v>5.833927922092823</v>
       </c>
       <c r="D18">
-        <v>28.89987601000724</v>
+        <v>49.12503594793171</v>
       </c>
       <c r="E18">
-        <v>58.61214388086537</v>
+        <v>99.63100444222754</v>
       </c>
       <c r="F18">
-        <v>20.51939203490217</v>
+        <v>34.87959155932796</v>
       </c>
       <c r="G18">
-        <v>91.2561005792187</v>
+        <v>155.1203617576028</v>
       </c>
       <c r="H18">
-        <v>3.501063511259137</v>
+        <v>5.951232136326181</v>
       </c>
       <c r="I18">
-        <v>306.9844368064308</v>
+        <v>521.8230517096155</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -919,28 +919,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>193.8993669592732</v>
+        <v>329.5970324875145</v>
       </c>
       <c r="C19">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D19">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E19">
-        <v>115.5961726539289</v>
+        <v>196.4944809832822</v>
       </c>
       <c r="F19">
-        <v>39.25448911024763</v>
+        <v>66.7261751569752</v>
       </c>
       <c r="G19">
-        <v>128.8321419941911</v>
+        <v>218.9934518930864</v>
       </c>
       <c r="H19">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I19">
-        <v>532.9130204819137</v>
+        <v>905.8644846514109</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -948,28 +948,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>333.6914082803227</v>
+        <v>567.2205106212396</v>
       </c>
       <c r="C20">
-        <v>9.315576108371872</v>
+        <v>15.83494721710909</v>
       </c>
       <c r="D20">
-        <v>56.19420335279185</v>
+        <v>95.52090323208945</v>
       </c>
       <c r="E20">
-        <v>140.0178992709561</v>
+        <v>238.0073995008769</v>
       </c>
       <c r="F20">
-        <v>48.62203764792036</v>
+        <v>82.64946695579886</v>
       </c>
       <c r="G20">
-        <v>180.7228658529626</v>
+        <v>307.1991477944684</v>
       </c>
       <c r="H20">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I20">
-        <v>773.8155857802143</v>
+        <v>1315.359223526071</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -977,28 +977,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>373.6066485052419</v>
+        <v>635.0698539969864</v>
       </c>
       <c r="C21">
-        <v>10.29616306714786</v>
+        <v>17.50178376627847</v>
       </c>
       <c r="D21">
-        <v>73.85523869224072</v>
+        <v>125.5417585336033</v>
       </c>
       <c r="E21">
-        <v>118.8524028695326</v>
+        <v>202.0295367856281</v>
       </c>
       <c r="F21">
-        <v>55.31314374625802</v>
+        <v>94.02324681210143</v>
       </c>
       <c r="G21">
-        <v>216.5095719624601</v>
+        <v>368.0306622092147</v>
       </c>
       <c r="H21">
-        <v>35.88590099040615</v>
+        <v>61.00012939734337</v>
       </c>
       <c r="I21">
-        <v>884.3190698332874</v>
+        <v>1503.196971501156</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1006,28 +1006,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>260.9569705371373</v>
+        <v>443.5839293587686</v>
       </c>
       <c r="C22">
-        <v>16.17968481980378</v>
+        <v>27.50280306129474</v>
       </c>
       <c r="D22">
-        <v>73.85523869224072</v>
+        <v>125.5417585336033</v>
       </c>
       <c r="E22">
-        <v>107.4555971149198</v>
+        <v>182.6568414774172</v>
       </c>
       <c r="F22">
-        <v>75.83253578116017</v>
+        <v>128.9028383714294</v>
       </c>
       <c r="G22">
-        <v>386.4964259825733</v>
+        <v>656.980355679259</v>
       </c>
       <c r="H22">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I22">
-        <v>926.0280481947239</v>
+        <v>1574.095374686261</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1035,28 +1035,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>183.6101050346275</v>
+        <v>312.1069795284333</v>
       </c>
       <c r="C23">
-        <v>11.76704350531183</v>
+        <v>20.00203859003254</v>
       </c>
       <c r="D23">
-        <v>59.40530068723712</v>
+        <v>100.9792405596374</v>
       </c>
       <c r="E23">
-        <v>87.91821582129805</v>
+        <v>149.4465066633413</v>
       </c>
       <c r="F23">
-        <v>95.90585407617318</v>
+        <v>163.0241779403372</v>
       </c>
       <c r="G23">
-        <v>354.2883904840256</v>
+        <v>602.2319927059876</v>
       </c>
       <c r="H23">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I23">
-        <v>803.3981001424507</v>
+        <v>1365.644632396748</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1064,28 +1064,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>206.8496448989136</v>
+        <v>351.6103750049791</v>
       </c>
       <c r="C24">
-        <v>18.14085873735575</v>
+        <v>30.8364761596335</v>
       </c>
       <c r="D24">
-        <v>48.16646001667874</v>
+        <v>81.87505991321953</v>
       </c>
       <c r="E24">
-        <v>83.03387049789262</v>
+        <v>141.1439229598224</v>
       </c>
       <c r="F24">
-        <v>88.76867423794633</v>
+        <v>150.8921460936144</v>
       </c>
       <c r="G24">
-        <v>443.7551557577695</v>
+        <v>754.3107787428534</v>
       </c>
       <c r="H24">
-        <v>22.75691282318438</v>
+        <v>38.68300888612018</v>
       </c>
       <c r="I24">
-        <v>911.4715769697409</v>
+        <v>1549.351767760243</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1093,28 +1093,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>193.189762688608</v>
+        <v>328.3908219386125</v>
       </c>
       <c r="C25">
-        <v>16.66997829919177</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D25">
-        <v>78.67188469390857</v>
+        <v>133.7292645249253</v>
       </c>
       <c r="E25">
-        <v>109.0837122227216</v>
+        <v>185.4243693785901</v>
       </c>
       <c r="F25">
-        <v>76.27860952104938</v>
+        <v>129.6610903618496</v>
       </c>
       <c r="G25">
-        <v>434.8084792303952</v>
+        <v>739.1029001391668</v>
       </c>
       <c r="H25">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I25">
-        <v>919.2056171896521</v>
+        <v>1562.498364088002</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1122,28 +1122,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>196.737784041934</v>
+        <v>334.4218746831234</v>
       </c>
       <c r="C26">
-        <v>10.29616306714786</v>
+        <v>17.50178376627847</v>
       </c>
       <c r="D26">
-        <v>56.19420335279185</v>
+        <v>95.52090323208945</v>
       </c>
       <c r="E26">
-        <v>76.52141006668533</v>
+        <v>130.0738113551304</v>
       </c>
       <c r="F26">
-        <v>77.17075700082772</v>
+        <v>131.1775943426899</v>
       </c>
       <c r="G26">
-        <v>475.9631912563172</v>
+        <v>809.0591417161246</v>
       </c>
       <c r="H26">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I26">
-        <v>903.3866993194814</v>
+        <v>1535.608805504415</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1151,28 +1151,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>222.9931420565475</v>
+        <v>379.0516649925031</v>
       </c>
       <c r="C27">
-        <v>7.354402190819898</v>
+        <v>12.50127411877034</v>
       </c>
       <c r="D27">
-        <v>110.7828580383611</v>
+        <v>188.3126378004049</v>
       </c>
       <c r="E27">
-        <v>84.66198560569441</v>
+        <v>143.9114508609954</v>
       </c>
       <c r="F27">
-        <v>77.17075700082772</v>
+        <v>131.1775943426899</v>
       </c>
       <c r="G27">
-        <v>300.6083313197793</v>
+        <v>510.9847210838682</v>
       </c>
       <c r="H27">
-        <v>17.50531755629568</v>
+        <v>29.7561606816309</v>
       </c>
       <c r="I27">
-        <v>821.0767937683256</v>
+        <v>1395.695503880863</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1180,28 +1180,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>232.2179975751954</v>
+        <v>394.7324021282312</v>
       </c>
       <c r="C28">
-        <v>13.72821742286381</v>
+        <v>23.33571168837129</v>
       </c>
       <c r="D28">
-        <v>54.58865468556923</v>
+        <v>92.79173456831546</v>
       </c>
       <c r="E28">
-        <v>79.77764028228897</v>
+        <v>135.6088671574764</v>
       </c>
       <c r="F28">
-        <v>82.52364187949786</v>
+        <v>140.276618227732</v>
       </c>
       <c r="G28">
-        <v>382.9177553716236</v>
+        <v>650.8972042377845</v>
       </c>
       <c r="H28">
-        <v>13.12898816722176</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I28">
-        <v>858.8828953842607</v>
+        <v>1459.959658519134</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1209,28 +1209,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>243.5716659058392</v>
+        <v>414.031770910666</v>
       </c>
       <c r="C29">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D29">
-        <v>83.48853069557649</v>
+        <v>141.9167705162472</v>
       </c>
       <c r="E29">
-        <v>109.0837122227216</v>
+        <v>185.4243693785901</v>
       </c>
       <c r="F29">
-        <v>74.49431456149267</v>
+        <v>126.6280824001689</v>
       </c>
       <c r="G29">
-        <v>288.0829841814551</v>
+        <v>489.6936910387072</v>
       </c>
       <c r="H29">
-        <v>13.12898816722176</v>
+        <v>22.31712051122318</v>
       </c>
       <c r="I29">
-        <v>818.7143044457387</v>
+        <v>1391.679660599788</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1238,28 +1238,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>325.5309591676728</v>
+        <v>553.349089308865</v>
       </c>
       <c r="C30">
-        <v>12.25733698469983</v>
+        <v>20.83545686461722</v>
       </c>
       <c r="D30">
-        <v>65.82749535612759</v>
+        <v>111.8959152147334</v>
       </c>
       <c r="E30">
-        <v>104.1993668993162</v>
+        <v>177.1217856750713</v>
       </c>
       <c r="F30">
-        <v>48.62203764792036</v>
+        <v>82.64946695579886</v>
       </c>
       <c r="G30">
-        <v>214.7202366569852</v>
+        <v>364.9890864884772</v>
       </c>
       <c r="H30">
-        <v>11.37845641159219</v>
+        <v>19.34150444306009</v>
       </c>
       <c r="I30">
-        <v>782.5358891243142</v>
+        <v>1330.182304950623</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1267,28 +1267,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>315.5964993783596</v>
+        <v>536.4621416242346</v>
       </c>
       <c r="C31">
-        <v>18.14085873735575</v>
+        <v>30.8364761596335</v>
       </c>
       <c r="D31">
-        <v>51.37755735112398</v>
+        <v>87.33339724076751</v>
       </c>
       <c r="E31">
-        <v>157.9271654567761</v>
+        <v>268.4502064137798</v>
       </c>
       <c r="F31">
-        <v>23.19583447423724</v>
+        <v>39.42910350184899</v>
       </c>
       <c r="G31">
-        <v>109.1494536339675</v>
+        <v>185.5361189649761</v>
       </c>
       <c r="H31">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I31">
-        <v>677.1379007874498</v>
+        <v>1151.023059973404</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1296,28 +1296,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>270.1818260557852</v>
+        <v>459.2646664944968</v>
       </c>
       <c r="C32">
-        <v>22.06320657245969</v>
+        <v>37.50382235631102</v>
       </c>
       <c r="D32">
-        <v>36.92761934612036</v>
+        <v>62.77087926680166</v>
       </c>
       <c r="E32">
-        <v>138.3897841631543</v>
+        <v>235.239871599704</v>
       </c>
       <c r="F32">
-        <v>24.0879819540156</v>
+        <v>40.94560748268934</v>
       </c>
       <c r="G32">
-        <v>91.2561005792187</v>
+        <v>155.1203617576028</v>
       </c>
       <c r="H32">
-        <v>7.002127022518273</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I32">
-        <v>589.9086456932722</v>
+        <v>1002.747673230258</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1325,28 +1325,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>196.2055808389351</v>
+        <v>333.5172167714467</v>
       </c>
       <c r="C33">
-        <v>23.04379353123568</v>
+        <v>39.17065890548038</v>
       </c>
       <c r="D33">
-        <v>41.74426534778824</v>
+        <v>70.9583852581236</v>
       </c>
       <c r="E33">
-        <v>138.3897841631543</v>
+        <v>235.239871599704</v>
       </c>
       <c r="F33">
-        <v>16.05865463601039</v>
+        <v>27.29707165512623</v>
       </c>
       <c r="G33">
-        <v>57.25872977519605</v>
+        <v>97.33042306359395</v>
       </c>
       <c r="H33">
-        <v>7.002127022518273</v>
+        <v>11.90246427265236</v>
       </c>
       <c r="I33">
-        <v>479.7029353148381</v>
+        <v>815.416091526127</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1354,25 +1354,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>146.5332818923694</v>
+        <v>249.0824783482955</v>
       </c>
       <c r="C34">
-        <v>17.65056525796775</v>
+        <v>30.00305788504881</v>
       </c>
       <c r="D34">
-        <v>24.08323000833937</v>
+        <v>40.93752995660977</v>
       </c>
       <c r="E34">
-        <v>91.17444603690167</v>
+        <v>154.9815624656873</v>
       </c>
       <c r="F34">
-        <v>9.367548537672729</v>
+        <v>15.92329179882363</v>
       </c>
       <c r="G34">
-        <v>57.25872977519605</v>
+        <v>97.33042306359395</v>
       </c>
       <c r="I34">
-        <v>346.067801508447</v>
+        <v>588.258343518059</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1380,28 +1380,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>102.1830149757927</v>
+        <v>173.6943190419107</v>
       </c>
       <c r="C35">
-        <v>8.825282628983874</v>
+        <v>15.0015289425244</v>
       </c>
       <c r="D35">
-        <v>16.05548667222625</v>
+        <v>27.29168663773983</v>
       </c>
       <c r="E35">
-        <v>74.89329495888353</v>
+        <v>127.3062834539574</v>
       </c>
       <c r="F35">
-        <v>9.813622277561906</v>
+        <v>16.6815437892438</v>
       </c>
       <c r="G35">
-        <v>33.99737080402265</v>
+        <v>57.7899386940089</v>
       </c>
       <c r="H35">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I35">
-        <v>247.5186040731005</v>
+        <v>420.7409166275482</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1409,28 +1409,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>58.36495126221491</v>
+        <v>99.21081764720252</v>
       </c>
       <c r="C36">
-        <v>19.12144569613174</v>
+        <v>32.50331270880287</v>
       </c>
       <c r="D36">
-        <v>1.605548667222624</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E36">
-        <v>35.81853237163995</v>
+        <v>60.88561382580574</v>
       </c>
       <c r="F36">
-        <v>28.99479309279654</v>
+        <v>49.28637937731123</v>
       </c>
       <c r="G36">
-        <v>48.31205324782167</v>
+        <v>82.12254445990737</v>
       </c>
       <c r="H36">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I36">
-        <v>193.0925902156422</v>
+        <v>328.2256447168853</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1438,28 +1438,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>30.86778577393737</v>
+        <v>52.47015887724385</v>
       </c>
       <c r="C37">
-        <v>9.805869587759862</v>
+        <v>16.66836549169378</v>
       </c>
       <c r="D37">
-        <v>1.605548667222624</v>
+        <v>2.729168663773985</v>
       </c>
       <c r="E37">
-        <v>13.02492086241453</v>
+        <v>22.14022320938391</v>
       </c>
       <c r="F37">
-        <v>18.28902333545629</v>
+        <v>31.08833160722709</v>
       </c>
       <c r="G37">
-        <v>37.57604141497241</v>
+        <v>63.87309013548353</v>
       </c>
       <c r="H37">
-        <v>2.625797633444352</v>
+        <v>4.463424102244636</v>
       </c>
       <c r="I37">
-        <v>113.7949872752074</v>
+        <v>193.4327620870508</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1467,25 +1467,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>22.17513345828833</v>
+        <v>37.69407965319244</v>
       </c>
       <c r="C38">
-        <v>2.451467396939965</v>
+        <v>4.167091372923445</v>
       </c>
       <c r="D38">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="F38">
-        <v>11.59791723711862</v>
+        <v>19.71455175092449</v>
       </c>
       <c r="G38">
-        <v>35.78670610949752</v>
+        <v>60.83151441474624</v>
       </c>
       <c r="H38">
-        <v>4.37632938907392</v>
+        <v>7.439040170407726</v>
       </c>
       <c r="I38">
-        <v>79.5986509253636</v>
+        <v>135.3046146897423</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1493,25 +1493,25 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>16.14349715763391</v>
+        <v>27.44128998752409</v>
       </c>
       <c r="C39">
-        <v>3.432054355715953</v>
+        <v>5.833927922092823</v>
       </c>
       <c r="D39">
-        <v>8.027743336113124</v>
+        <v>13.64584331886992</v>
       </c>
       <c r="F39">
-        <v>5.352884878670132</v>
+        <v>9.099023885042076</v>
       </c>
       <c r="G39">
-        <v>32.20803549854778</v>
+        <v>54.74836297327161</v>
       </c>
       <c r="H39">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I39">
-        <v>66.03948110449568</v>
+        <v>112.2562561208821</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1519,28 +1519,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>16.32089822530022</v>
+        <v>27.74284262474964</v>
       </c>
       <c r="C40">
-        <v>2.941760876327959</v>
+        <v>5.000509647508134</v>
       </c>
       <c r="D40">
-        <v>3.211097334445248</v>
+        <v>5.458337327547969</v>
       </c>
       <c r="E40">
-        <v>14.65303597021634</v>
+        <v>24.90775111055688</v>
       </c>
       <c r="F40">
-        <v>8.921474797783553</v>
+        <v>15.16503980840346</v>
       </c>
       <c r="G40">
-        <v>28.62936488759803</v>
+        <v>48.66521153179698</v>
       </c>
       <c r="H40">
-        <v>1.750531755629568</v>
+        <v>2.97561606816309</v>
       </c>
       <c r="I40">
-        <v>76.42816384730091</v>
+        <v>129.9153081187262</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1548,28 +1548,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>41.68925090158209</v>
+        <v>70.86486974800181</v>
       </c>
       <c r="C41">
-        <v>3.922347835103944</v>
+        <v>6.667346196677513</v>
       </c>
       <c r="D41">
-        <v>6.422194668890497</v>
+        <v>10.91667465509594</v>
       </c>
       <c r="E41">
-        <v>11.39680575461271</v>
+        <v>19.37269530821092</v>
       </c>
       <c r="F41">
-        <v>8.475401057894373</v>
+        <v>14.40678781798328</v>
       </c>
       <c r="G41">
-        <v>44.73338263687192</v>
+        <v>76.03939301843276</v>
       </c>
       <c r="H41">
-        <v>0.8752658778147842</v>
+        <v>1.487808034081545</v>
       </c>
       <c r="I41">
-        <v>117.5146487327703</v>
+        <v>199.7555747784838</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1577,28 +1577,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>96.68358187813718</v>
+        <v>164.346187287919</v>
       </c>
       <c r="C42">
-        <v>7.844695670207889</v>
+        <v>13.33469239335503</v>
       </c>
       <c r="D42">
-        <v>24.08323000833937</v>
+        <v>40.93752995660977</v>
       </c>
       <c r="E42">
-        <v>65.12460431207263</v>
+        <v>110.7011160469195</v>
       </c>
       <c r="F42">
-        <v>21.8576132545697</v>
+        <v>37.15434753058847</v>
       </c>
       <c r="G42">
-        <v>78.73075344089457</v>
+        <v>133.8293317124417</v>
       </c>
       <c r="H42">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I42">
-        <v>299.57607383111</v>
+        <v>509.2300531323227</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1606,28 +1606,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>190.7061477412797</v>
+        <v>324.1690850174549</v>
       </c>
       <c r="C43">
-        <v>8.334989149595884</v>
+        <v>14.16811066793972</v>
       </c>
       <c r="D43">
-        <v>27.29432734278462</v>
+        <v>46.39586728415773</v>
       </c>
       <c r="E43">
-        <v>113.9680575461271</v>
+        <v>193.7269530821092</v>
       </c>
       <c r="F43">
-        <v>37.47019415069092</v>
+        <v>63.69316719529453</v>
       </c>
       <c r="G43">
-        <v>98.4134418011182</v>
+        <v>167.2866646405521</v>
       </c>
       <c r="H43">
-        <v>5.251595266888705</v>
+        <v>8.926848204489271</v>
       </c>
       <c r="I43">
-        <v>481.4387529984851</v>
+        <v>818.3666960919975</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1635,28 +1635,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>311.161472686702</v>
+        <v>528.9233256935963</v>
       </c>
       <c r="C44">
-        <v>6.864108711431905</v>
+        <v>11.66785584418565</v>
       </c>
       <c r="D44">
-        <v>61.01084935445972</v>
+        <v>103.7084092234114</v>
       </c>
       <c r="E44">
-        <v>141.6460143787579</v>
+        <v>240.7749274020499</v>
       </c>
       <c r="F44">
-        <v>49.9602588675879</v>
+        <v>84.92422292705939</v>
       </c>
       <c r="G44">
-        <v>161.0401774927389</v>
+        <v>273.7418148663581</v>
       </c>
       <c r="H44">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I44">
-        <v>742.1860720254559</v>
+        <v>1261.594252365639</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1664,28 +1664,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>362.9625844452638</v>
+        <v>616.9766957634541</v>
       </c>
       <c r="C45">
-        <v>10.29616306714786</v>
+        <v>17.50178376627847</v>
       </c>
       <c r="D45">
-        <v>69.03859269057284</v>
+        <v>117.3542525422813</v>
       </c>
       <c r="E45">
-        <v>122.1086330851362</v>
+        <v>207.5645925879741</v>
       </c>
       <c r="F45">
-        <v>49.9602588675879</v>
+        <v>84.92422292705939</v>
       </c>
       <c r="G45">
-        <v>187.880207074862</v>
+        <v>319.3654506774178</v>
       </c>
       <c r="H45">
-        <v>20.13111518974003</v>
+        <v>34.21958478387554</v>
       </c>
       <c r="I45">
-        <v>822.3775544203106</v>
+        <v>1397.906583048341</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1693,28 +1693,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>305.4846385213802</v>
+        <v>519.2736413023791</v>
       </c>
       <c r="C46">
-        <v>14.2185109022518</v>
+        <v>24.16912996295598</v>
       </c>
       <c r="D46">
-        <v>86.69962803002173</v>
+        <v>147.3751078437951</v>
       </c>
       <c r="E46">
-        <v>109.0837122227216</v>
+        <v>185.4243693785901</v>
       </c>
       <c r="F46">
-        <v>95.45978033628401</v>
+        <v>162.265925949917</v>
       </c>
       <c r="G46">
-        <v>363.2350670113999</v>
+        <v>617.4398713096741</v>
       </c>
       <c r="H46">
-        <v>15.75478580066611</v>
+        <v>26.78054461346781</v>
       </c>
       <c r="I46">
-        <v>989.9361228247254</v>
+        <v>1682.728590360779</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1722,28 +1722,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>209.3332598462418</v>
+        <v>355.8321119261366</v>
       </c>
       <c r="C47">
-        <v>17.65056525796775</v>
+        <v>30.00305788504881</v>
       </c>
       <c r="D47">
-        <v>49.77200868390135</v>
+        <v>84.60422857699348</v>
       </c>
       <c r="E47">
-        <v>96.05879136030714</v>
+        <v>163.2841461692063</v>
       </c>
       <c r="F47">
-        <v>116.8713198509645</v>
+        <v>198.6620214900853</v>
       </c>
       <c r="G47">
-        <v>255.8749486829074</v>
+        <v>434.9453280654354</v>
       </c>
       <c r="H47">
-        <v>14.87951992285133</v>
+        <v>25.29273657938627</v>
       </c>
       <c r="I47">
-        <v>760.4404136051412</v>
+        <v>1292.623630692292</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1751,28 +1751,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>229.5569815602009</v>
+        <v>390.2091125698482</v>
       </c>
       <c r="C48">
-        <v>20.10203265490772</v>
+        <v>34.17014925797226</v>
       </c>
       <c r="D48">
-        <v>120.4161500416968</v>
+        <v>204.6876497830488</v>
       </c>
       <c r="E48">
-        <v>102.5712517915144</v>
+        <v>174.3542577738982</v>
       </c>
       <c r="F48">
-        <v>112.8566561919619</v>
+        <v>191.8377535763038</v>
       </c>
       <c r="G48">
-        <v>334.6057021238019</v>
+        <v>568.7746597778772</v>
       </c>
       <c r="H48">
-        <v>21.00638106755482</v>
+        <v>35.70739281795709</v>
       </c>
       <c r="I48">
-        <v>941.1151554316385</v>
+        <v>1599.740975556906</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1780,28 +1780,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>193.189762688608</v>
+        <v>328.3908219386125</v>
       </c>
       <c r="C49">
-        <v>16.66997829919177</v>
+        <v>28.33622133587944</v>
       </c>
       <c r="D49">
-        <v>78.67188469390857</v>
+        <v>133.7292645249253</v>
       </c>
       <c r="E49">
-        <v>109.0837122227216</v>
+        <v>185.4243693785901</v>
       </c>
       <c r="F49">
-        <v>76.27860952104938</v>
+        <v>129.6610903618496</v>
       </c>
       <c r="G49">
-        <v>434.8084792303952</v>
+        <v>739.1029001391668</v>
       </c>
       <c r="H49">
-        <v>10.50319053377741</v>
+        <v>17.85369640897854</v>
       </c>
       <c r="I49">
-        <v>919.2056171896521</v>
+        <v>1562.498364088002</v>
       </c>
     </row>
   </sheetData>
